--- a/데이터 분석4/studentnetwork_download.xlsx
+++ b/데이터 분석4/studentnetwork_download.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{217DF806-F9DD-43D2-A8C2-43359C451F03}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{23FB68E4-B252-4F96-AEB5-F4F286F047F2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>1. 경영학부 09학번 김진용</t>
   </si>
@@ -284,10 +284,6 @@
   </si>
   <si>
     <t>안예지</t>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -699,7 +695,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -708,9 +704,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4505,7 +4499,7 @@
     </row>
     <row r="27" spans="1:48" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
